--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T16:19:48+00:00</t>
+    <t>2024-02-29T18:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Destino Atención Codigo</t>
+    <t>Consecuencia Atención Codigo</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -338,7 +338,7 @@
 </t>
   </si>
   <si>
-    <t>Código Destino Atención</t>
+    <t>Código Consecuencia Atención</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
+++ b/StructureDefinition-ConsecuenciaAtencionCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
